--- a/data/listing-extracted.xlsx
+++ b/data/listing-extracted.xlsx
@@ -494,7 +494,7 @@
         <v>344</v>
       </c>
       <c r="G2" s="3">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" ref="H2:H17" si="0">G2/D2</f>
@@ -564,7 +564,7 @@
         <v>358</v>
       </c>
       <c r="G4" s="3">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
@@ -599,7 +599,7 @@
         <v>344</v>
       </c>
       <c r="G5" s="3">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
@@ -669,7 +669,7 @@
         <v>330</v>
       </c>
       <c r="G7" s="3">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
@@ -704,7 +704,7 @@
         <v>392</v>
       </c>
       <c r="G8" s="3">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
@@ -739,7 +739,7 @@
         <v>450</v>
       </c>
       <c r="G9" s="3">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
@@ -774,7 +774,7 @@
         <v>378</v>
       </c>
       <c r="G10" s="3">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
@@ -809,7 +809,7 @@
         <v>678</v>
       </c>
       <c r="G11" s="3">
-        <v>678</v>
+        <v>380</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
@@ -844,7 +844,7 @@
         <v>321</v>
       </c>
       <c r="G12" s="3">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
@@ -879,7 +879,7 @@
         <v>330</v>
       </c>
       <c r="G13" s="3">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
@@ -914,7 +914,7 @@
         <v>704</v>
       </c>
       <c r="G14" s="3">
-        <v>704</v>
+        <v>380</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
@@ -949,7 +949,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="3">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
@@ -984,7 +984,7 @@
         <v>451.25</v>
       </c>
       <c r="G16" s="3">
-        <v>451.25</v>
+        <v>380</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
@@ -1019,7 +1019,7 @@
         <v>294</v>
       </c>
       <c r="G17" s="3">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>

--- a/data/listing-extracted.xlsx
+++ b/data/listing-extracted.xlsx
@@ -503,7 +503,7 @@
         <f t="shared" ref="I2:I17" si="1">H2/MIN(2, C2)</f>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J17" si="2">IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
+        <f t="shared" ref="J2:J17" si="2">_xlfn.IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K17" si="3">(I2-1)*A2</f>
